--- a/06_output/aggregated/xlsx/Aggregated.xlsx
+++ b/06_output/aggregated/xlsx/Aggregated.xlsx
@@ -1155,7 +1155,7 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C35" t="s">
         <v>54</v>
